--- a/LY354740_Rat/TB1Awake_VarReward/LY354740_Rat_awake_behaviour.xlsx
+++ b/LY354740_Rat/TB1Awake_VarReward/LY354740_Rat_awake_behaviour.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,13 +10,13 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFACD38-C90E-49C0-A350-49F166738B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="59">
   <si>
     <t>subject</t>
   </si>
@@ -231,7 +231,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -246,15 +246,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1232,52 +1244,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C93112-CC06-4DC2-AF09-61A7C4EEDFC1}">
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="9.140625" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="5.140625" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="8.140625" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="7.7109375" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="14.140625" bestFit="true" customWidth="true"/>
+    <col min="8" max="25" width="9.7109375" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
+      <c r="G1" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>20130227</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20130301</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>20130227</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>172</v>
       </c>
       <c r="H4" t="s">
         <v>3</v>
@@ -1328,24 +1402,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5">
+      <c r="A5">
+        <v>32</v>
+      </c>
       <c r="B5">
-        <v>29</v>
-      </c>
-      <c r="C5">
-        <v>32</v>
+        <v>20130301</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>34</v>
-      </c>
-      <c r="E5">
-        <v>52</v>
-      </c>
-      <c r="F5">
-        <v>54</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -1396,27 +1473,27 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
-      <c r="A6" t="s">
-        <v>57</v>
+    <row r="6">
+      <c r="A6">
+        <v>34</v>
       </c>
       <c r="B6" s="3">
-        <v>246</v>
-      </c>
-      <c r="C6" s="3">
-        <v>240</v>
+        <v>20130227</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>113</v>
-      </c>
-      <c r="E6" s="3">
-        <v>176</v>
-      </c>
-      <c r="F6" s="3">
-        <v>194</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="G6" s="3">
-        <v>151</v>
+        <v>228</v>
       </c>
       <c r="H6" s="3">
         <v>154</v>
@@ -1465,6 +1542,995 @@
       </c>
       <c r="W6" s="3">
         <v>127</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>20130301</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>20130911</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>52</v>
+      </c>
+      <c r="B9">
+        <v>20130913</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>20140617</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>54</v>
+      </c>
+      <c r="B11">
+        <v>20140619</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <v>20140617</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>55</v>
+      </c>
+      <c r="B13">
+        <v>20140619</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>56</v>
+      </c>
+      <c r="B14">
+        <v>20140617</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>56</v>
+      </c>
+      <c r="B15">
+        <v>20140619</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>57</v>
+      </c>
+      <c r="B16">
+        <v>20140618</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>57</v>
+      </c>
+      <c r="B17">
+        <v>20140620</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>20140618</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>58</v>
+      </c>
+      <c r="B19">
+        <v>20140620</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>69</v>
+      </c>
+      <c r="B20">
+        <v>20141209</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>20141211</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>71</v>
+      </c>
+      <c r="B22">
+        <v>20141212</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>20141216</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>72</v>
+      </c>
+      <c r="B24">
+        <v>20141210</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>72</v>
+      </c>
+      <c r="B25">
+        <v>20141212</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26">
+        <v>20130227</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>20130301</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>20130227</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>20130301</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>20130227</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>20130301</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>52</v>
+      </c>
+      <c r="B32">
+        <v>20130911</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>20130913</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>54</v>
+      </c>
+      <c r="B34">
+        <v>20140617</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>54</v>
+      </c>
+      <c r="B35">
+        <v>20140619</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>20140617</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>55</v>
+      </c>
+      <c r="B37">
+        <v>20140619</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>20140617</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>56</v>
+      </c>
+      <c r="B39">
+        <v>20140619</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <v>20140618</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>20140620</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>58</v>
+      </c>
+      <c r="B42">
+        <v>20140618</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>58</v>
+      </c>
+      <c r="B43">
+        <v>20140620</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>69</v>
+      </c>
+      <c r="B44">
+        <v>20141209</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <v>20141211</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>71</v>
+      </c>
+      <c r="B46">
+        <v>20141212</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>71</v>
+      </c>
+      <c r="B47">
+        <v>20141216</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>72</v>
+      </c>
+      <c r="B48">
+        <v>20141210</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="b">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>72</v>
+      </c>
+      <c r="B49">
+        <v>20141212</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" t="b">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1482,16 +2548,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="5.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="true"/>
+    <col min="2" max="2" width="9.140625" customWidth="true"/>
+    <col min="3" max="3" width="5.140625" customWidth="true"/>
+    <col min="4" max="4" width="8.140625" customWidth="true"/>
+    <col min="5" max="5" width="18.28515625" customWidth="true"/>
+    <col min="6" max="6" width="7.7109375" customWidth="true"/>
+    <col min="7" max="7" width="14.140625" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +2580,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2">
       <c r="A2">
         <v>29</v>
       </c>
@@ -1537,7 +2603,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3">
       <c r="A3">
         <v>29</v>
       </c>
@@ -1560,7 +2626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4">
       <c r="A4">
         <v>32</v>
       </c>
@@ -1583,7 +2649,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5">
       <c r="A5">
         <v>32</v>
       </c>
@@ -1606,7 +2672,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6">
       <c r="A6">
         <v>34</v>
       </c>
@@ -1629,7 +2695,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7">
       <c r="A7">
         <v>34</v>
       </c>
@@ -1652,7 +2718,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8">
       <c r="A8">
         <v>52</v>
       </c>
@@ -1675,7 +2741,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9">
       <c r="A9">
         <v>52</v>
       </c>
@@ -1698,7 +2764,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10">
       <c r="A10">
         <v>54</v>
       </c>
@@ -1721,7 +2787,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11">
       <c r="A11">
         <v>54</v>
       </c>
@@ -1744,7 +2810,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12">
       <c r="A12">
         <v>55</v>
       </c>
@@ -1767,7 +2833,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13">
       <c r="A13">
         <v>55</v>
       </c>
@@ -1790,7 +2856,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14">
       <c r="A14">
         <v>56</v>
       </c>
@@ -1813,7 +2879,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15">
       <c r="A15">
         <v>56</v>
       </c>
@@ -1836,7 +2902,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16">
       <c r="A16">
         <v>57</v>
       </c>
@@ -1859,7 +2925,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17">
       <c r="A17">
         <v>57</v>
       </c>
@@ -1882,7 +2948,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18">
       <c r="A18">
         <v>58</v>
       </c>
@@ -1905,7 +2971,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19">
       <c r="A19">
         <v>58</v>
       </c>
@@ -1928,7 +2994,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20">
       <c r="A20">
         <v>69</v>
       </c>
@@ -1951,7 +3017,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21">
       <c r="A21">
         <v>69</v>
       </c>
@@ -1974,7 +3040,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22">
       <c r="A22">
         <v>71</v>
       </c>
@@ -1997,7 +3063,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23">
       <c r="A23">
         <v>71</v>
       </c>
@@ -2020,7 +3086,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24">
       <c r="A24">
         <v>72</v>
       </c>
@@ -2043,7 +3109,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25">
       <c r="A25">
         <v>72</v>
       </c>
@@ -2066,7 +3132,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26">
       <c r="A26">
         <v>29</v>
       </c>
@@ -2089,7 +3155,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27">
       <c r="A27">
         <v>29</v>
       </c>
@@ -2112,7 +3178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28">
       <c r="A28">
         <v>32</v>
       </c>
@@ -2135,7 +3201,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29">
       <c r="A29">
         <v>32</v>
       </c>
@@ -2158,7 +3224,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30">
       <c r="A30">
         <v>34</v>
       </c>
@@ -2181,7 +3247,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31">
       <c r="A31">
         <v>34</v>
       </c>
@@ -2204,7 +3270,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32">
       <c r="A32">
         <v>52</v>
       </c>
@@ -2227,7 +3293,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33">
       <c r="A33">
         <v>52</v>
       </c>
@@ -2250,7 +3316,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34">
       <c r="A34">
         <v>54</v>
       </c>
@@ -2273,7 +3339,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35">
       <c r="A35">
         <v>54</v>
       </c>
@@ -2296,7 +3362,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36">
       <c r="A36">
         <v>55</v>
       </c>
@@ -2319,7 +3385,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37">
       <c r="A37">
         <v>55</v>
       </c>
@@ -2342,7 +3408,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38">
       <c r="A38">
         <v>56</v>
       </c>
@@ -2365,7 +3431,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39">
       <c r="A39">
         <v>56</v>
       </c>
@@ -2388,7 +3454,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40">
       <c r="A40">
         <v>57</v>
       </c>
@@ -2411,7 +3477,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41">
       <c r="A41">
         <v>57</v>
       </c>
@@ -2434,7 +3500,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42">
       <c r="A42">
         <v>58</v>
       </c>
@@ -2457,7 +3523,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43">
       <c r="A43">
         <v>58</v>
       </c>
@@ -2480,7 +3546,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44">
       <c r="A44">
         <v>69</v>
       </c>
@@ -2503,7 +3569,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45">
       <c r="A45">
         <v>69</v>
       </c>
@@ -2526,7 +3592,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46">
       <c r="A46">
         <v>71</v>
       </c>
@@ -2549,7 +3615,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47">
       <c r="A47">
         <v>71</v>
       </c>
@@ -2572,7 +3638,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48">
       <c r="A48">
         <v>72</v>
       </c>
@@ -2595,7 +3661,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49">
       <c r="A49">
         <v>72</v>
       </c>
